--- a/biology/Zoologie/William_Jardine_(naturaliste)/William_Jardine_(naturaliste).xlsx
+++ b/biology/Zoologie/William_Jardine_(naturaliste)/William_Jardine_(naturaliste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Jardine, 7e baronnet d'Applegirth, est un naturaliste écossais, né le 23 février 1800 et mort le 21 novembre 1874.
 Jardine contribue grandement à la vulgarisation de l'histoire naturelle au Royaume-Uni victorienne en éditant le très populaire The Naturalist's Library (en quarante volumes). Cet ouvrage est divise en quatre parties principales : l'ornithologie, la mammalogie, l'entomologie et l'ichtyologie. Chaque partie est préparée par d'éminents naturalistes. Parmi les artistes ayant collaboré à ce projet, il faut citer Edward Lear (1812-1888).
@@ -514,7 +526,9 @@
           <t>The Naturalist's Library (1833-1843)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">PS : par ordre de publication.
 1. Humming-birds, vol. 1, avec une biographie et un portrait de Carl von Linné (1707-1778). – Ouvrage disponible sur IA.
